--- a/Form/DRT Form.xlsx
+++ b/Form/DRT Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parth.pandey\Desktop\Field Force Forms\Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE38145-D8F5-45AF-BC58-ABA9648AC80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA9486-B0D7-4685-B454-DD9F4334F175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="172">
   <si>
     <t>type</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>Not-in-site</t>
+  </si>
+  <si>
+    <t>Package-C</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1869,13 +1872,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1917,81 +1920,81 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1999,21 +2002,21 @@
         <v>132</v>
       </c>
       <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
         <v>170</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2021,21 +2024,21 @@
         <v>101</v>
       </c>
       <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2043,21 +2046,21 @@
         <v>125</v>
       </c>
       <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
         <v>91</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2065,21 +2068,21 @@
         <v>142</v>
       </c>
       <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
         <v>170</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2087,21 +2090,21 @@
         <v>110</v>
       </c>
       <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
         <v>170</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2109,9 +2112,20 @@
         <v>117</v>
       </c>
       <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
         <v>170</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>170</v>
       </c>
     </row>
